--- a/data/Aviation_Occurrence_Categories/aviation_occurrence_categories.xlsx
+++ b/data/Aviation_Occurrence_Categories/aviation_occurrence_categories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftDevelopment\Projects\IO-Aero\io-avstats-db\data\Aviation_Occurrence_Categories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559A972C-FF92-4288-81AE-077AAFE0E55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6C66F8-329F-4486-A428-47F47E3E996F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25800" yWindow="0" windowWidth="25800" windowHeight="21150" xr2:uid="{ED3E8A8E-8B7E-4EE9-B09D-CB89C55E22F8}"/>
+    <workbookView xWindow="3120" yWindow="450" windowWidth="25800" windowHeight="21150" xr2:uid="{ED3E8A8E-8B7E-4EE9-B09D-CB89C55E22F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -270,9 +270,6 @@
     <t>SEC</t>
   </si>
   <si>
-    <t>SCF–NP</t>
-  </si>
-  <si>
     <t>SECURITY RELATED</t>
   </si>
   <si>
@@ -285,9 +282,6 @@
     <t>Failure or malfunction of an aircraft system or component other than the powerplant.</t>
   </si>
   <si>
-    <t>SCF–PP</t>
-  </si>
-  <si>
     <t>Failure or malfunction of an aircraft system or component related to the powerplant.</t>
   </si>
   <si>
@@ -355,6 +349,12 @@
   </si>
   <si>
     <t>CICTT Code</t>
+  </si>
+  <si>
+    <t>SCF-NP</t>
+  </si>
+  <si>
+    <t>SCF-PP</t>
   </si>
 </sst>
 </file>
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5083ACC2-C43B-46CC-8CB4-47B7AFCBC787}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,13 +742,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1050,24 +1050,24 @@
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1075,76 +1075,76 @@
         <v>80</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
